--- a/base-api.xlsx
+++ b/base-api.xlsx
@@ -41,12 +41,199 @@
         </r>
       </text>
     </comment>
+    <comment ref="H13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>{
+ "success":false,
+ "resultTypeCode":"ALREADY_JOIN_EMAIL",
+ "message":"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가입된</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이메일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주소입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다른</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이메일을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.",
+ "data":null
+}</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Pre-conditions</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,10 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>errorMsg (Error)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,6 +435,19 @@
   </si>
   <si>
     <t>result (NoError)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># validation
+   password - 영문 숫자 특수문자 2가지 이상 6~15자 이내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success / fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +519,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -579,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,12 +823,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -660,6 +858,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -988,7 +1201,7 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -996,7 +1209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1004,7 +1217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1012,7 +1225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1020,7 +1233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1028,7 +1241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1036,7 +1249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>99</v>
       </c>
@@ -1044,7 +1257,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1052,7 +1265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1060,15 +1273,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="24" t="s">
+    <row r="13" spans="1:8">
+      <c r="B13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1082,57 +1298,57 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="23" t="s">
+    <row r="15" spans="1:8">
+      <c r="B15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23" t="s">
+    <row r="16" spans="1:8">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1149,55 +1365,55 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="19" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="18" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="12" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="5"/>
     <col min="6" max="6" width="15.75" style="10"/>
-    <col min="7" max="7" width="11.75" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.25" style="20" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="20" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="12"/>
+    <col min="7" max="7" width="11.75" style="17" customWidth="1"/>
+    <col min="8" max="8" width="35.25" style="18" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="18" customWidth="1"/>
+    <col min="10" max="10" width="63.125" style="28" customWidth="1"/>
     <col min="11" max="16384" width="15.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1206,23 +1422,23 @@
       <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1234,18 +1450,18 @@
       <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="32" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
       <c r="B4" s="6"/>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -1254,19 +1470,22 @@
       <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="33"/>
+      <c r="G4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="29" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="F5" s="20"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="F6" s="20"/>
+      <c r="F6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
